--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="780" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -454,6 +454,16 @@
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -34,6 +35,10 @@
   </si>
   <si>
     <t>2016/8/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheet2_test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -464,6 +469,32 @@
     <row r="9" spans="1:1">
       <c r="A9" t="b">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
